--- a/public/files/studentsAssignation/uploadStudentsTemplate.xlsx
+++ b/public/files/studentsAssignation/uploadStudentsTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malen\Desktop\Proyectos Web\psi-courses-management\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malen\Desktop\Proyectos Web\psi-courses-management\public\files\studentsAssignation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F5B3B4-09BD-4778-AE24-C6CFCB9BE4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B8A653-D537-4162-9109-7F2B38694CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12293CC7-00FB-433F-928D-37B34B52A481}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Apellido</t>
   </si>
@@ -33,10 +33,13 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Apto médico vigente</t>
   </si>
 </sst>
 </file>
@@ -81,9 +84,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -400,65 +406,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5473458E-B213-4A03-BA22-6D01DB8A2F5A}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B2564491-1911-4812-8028-EABC15CCD8A3}">
+      <formula1>"si,no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>